--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_9_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_9_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.99000000000062</v>
+        <v>25.55000000000055</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0004685670220654359</v>
+        <v>0.0011067150142271</v>
       </c>
       <c r="H2" t="n">
-        <v>0.001689117638248666</v>
+        <v>0.002613270646225289</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.756355432739462</v>
+        <v>5.328976076040837</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.0185724496455286, 9.494138415833396]</t>
+          <t>[2.2086512459124688, 8.449300906169205]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.002719369123861171</v>
+        <v>0.000914818006285234</v>
       </c>
       <c r="N2" t="n">
-        <v>0.002719369123861171</v>
+        <v>0.000914818006285234</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.081789662497386</v>
+        <v>-1.522052897234695</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-1.7736318885131572, -0.38994743648161556]</t>
+          <t>[-2.314526719761851, -0.729579074707539]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.002345287218429748</v>
+        <v>0.0002034999909019675</v>
       </c>
       <c r="R2" t="n">
-        <v>0.002345287218429748</v>
+        <v>0.0002034999909019675</v>
       </c>
       <c r="S2" t="n">
-        <v>10.79917972306115</v>
+        <v>10.66146766849726</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.762221327183289, 12.836138118939006]</t>
+          <t>[8.679978977780847, 12.642956359213665]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>4.474754754754862</v>
+        <v>6.189289289289423</v>
       </c>
       <c r="X2" t="n">
-        <v>1.612992992993029</v>
+        <v>2.966766766766827</v>
       </c>
       <c r="Y2" t="n">
-        <v>7.336516516516695</v>
+        <v>9.411811811812019</v>
       </c>
     </row>
     <row r="3">
@@ -652,55 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.80000000000013</v>
+        <v>22.73000000000011</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>4.711710376670286e-05</v>
+        <v>3.65295153237355e-07</v>
       </c>
       <c r="H3" t="n">
-        <v>0.0006143037898339502</v>
-      </c>
-      <c r="I3" t="n">
-        <v>5.610952923396084e-07</v>
-      </c>
+        <v>5.968065596189554e-06</v>
+      </c>
+      <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>5.820906004712189</v>
+        <v>6.728538253900272</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[2.5232651549948297, 9.118546854429548]</t>
+          <t>[3.918689234250836, 9.538387273549708]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>0.0006021259634505505</v>
+        <v>4.081246445908349e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>0.001204251926901101</v>
+        <v>8.162492891816697e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.968605606753965</v>
+        <v>1.83023716155081</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3648160276856558, 2.5723951858222733]</t>
+          <t>[1.3270791789938867, 2.333395144107734]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>7.238849519808355e-10</v>
+        <v>9.722000982037571e-12</v>
       </c>
       <c r="R3" t="n">
-        <v>1.447769903961671e-09</v>
+        <v>1.944400196407514e-11</v>
       </c>
       <c r="S3" t="n">
-        <v>10.41442766118837</v>
+        <v>10.42647502345576</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.642487034771488, 12.186368287605251]</t>
+          <t>[8.76351636906151, 12.089433677850007]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -710,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>15.65645645645654</v>
+        <v>16.10894894894903</v>
       </c>
       <c r="X3" t="n">
-        <v>13.46546546546554</v>
+        <v>14.2887287287288</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.84744744744755</v>
+        <v>17.92916916916926</v>
       </c>
     </row>
   </sheetData>

--- a/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_9_sawtooth_10_.xlsx
+++ b/src/analysis_examples/circadipy/results_circadipy/sawtooth_10/cosinor_9_sawtooth_10_.xlsx
@@ -571,53 +571,53 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>25.55000000000055</v>
+        <v>25.80000000000059</v>
       </c>
       <c r="F2" t="n">
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>0.0011067150142271</v>
+        <v>0.001043190830707919</v>
       </c>
       <c r="H2" t="n">
-        <v>0.002613270646225289</v>
+        <v>0.002978573635924242</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
       <c r="K2" t="n">
-        <v>5.328976076040837</v>
+        <v>5.406208037081739</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[2.2086512459124688, 8.449300906169205]</t>
+          <t>[1.6613743569407013, 9.151041717222776]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>0.000914818006285234</v>
+        <v>0.004890536941837054</v>
       </c>
       <c r="N2" t="n">
-        <v>0.000914818006285234</v>
+        <v>0.004890536941837054</v>
       </c>
       <c r="O2" t="n">
-        <v>-1.522052897234695</v>
+        <v>-1.182421259008771</v>
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>[-2.314526719761851, -0.729579074707539]</t>
+          <t>[-1.9120003337163114, -0.4528421843012316]</t>
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>0.0002034999909019675</v>
+        <v>0.001628165006919868</v>
       </c>
       <c r="R2" t="n">
-        <v>0.0002034999909019675</v>
+        <v>0.001628165006919868</v>
       </c>
       <c r="S2" t="n">
-        <v>10.66146766849726</v>
+        <v>10.59100704148987</v>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[8.679978977780847, 12.642956359213665]</t>
+          <t>[8.568732341900544, 12.61328174107919]</t>
         </is>
       </c>
       <c r="U2" t="n">
@@ -627,13 +627,13 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>6.189289289289423</v>
+        <v>4.855255255255368</v>
       </c>
       <c r="X2" t="n">
-        <v>2.966766766766827</v>
+        <v>1.859459459459502</v>
       </c>
       <c r="Y2" t="n">
-        <v>9.411811811812019</v>
+        <v>7.851051051051234</v>
       </c>
     </row>
     <row r="3">
@@ -652,53 +652,53 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>22.73000000000011</v>
+        <v>22.57000000000009</v>
       </c>
       <c r="F3" t="n">
         <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>3.65295153237355e-07</v>
+        <v>2.142190624665474e-06</v>
       </c>
       <c r="H3" t="n">
-        <v>5.968065596189554e-06</v>
+        <v>3.234684370692437e-05</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
       <c r="K3" t="n">
-        <v>6.728538253900272</v>
+        <v>6.464525746160232</v>
       </c>
       <c r="L3" t="inlineStr">
         <is>
-          <t>[3.918689234250836, 9.538387273549708]</t>
+          <t>[3.7660693696146144, 9.16298212270585]</t>
         </is>
       </c>
       <c r="M3" t="n">
-        <v>4.081246445908349e-06</v>
+        <v>4.044859953644675e-06</v>
       </c>
       <c r="N3" t="n">
-        <v>8.162492891816697e-06</v>
+        <v>8.08971990728935e-06</v>
       </c>
       <c r="O3" t="n">
-        <v>1.83023716155081</v>
+        <v>1.591237119836271</v>
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>[1.3270791789938867, 2.333395144107734]</t>
+          <t>[1.0755001877154236, 2.1069740519571187]</t>
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>9.722000982037571e-12</v>
+        <v>4.816715470923327e-09</v>
       </c>
       <c r="R3" t="n">
-        <v>1.944400196407514e-11</v>
+        <v>9.633430941846655e-09</v>
       </c>
       <c r="S3" t="n">
-        <v>10.42647502345576</v>
+        <v>10.59570845365085</v>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>[8.76351636906151, 12.089433677850007]</t>
+          <t>[8.889630976976422, 12.301785930325286]</t>
         </is>
       </c>
       <c r="U3" t="n">
@@ -708,13 +708,13 @@
         <v>0</v>
       </c>
       <c r="W3" t="n">
-        <v>16.10894894894903</v>
+        <v>16.85407407407414</v>
       </c>
       <c r="X3" t="n">
-        <v>14.2887287287288</v>
+        <v>15.00148148148154</v>
       </c>
       <c r="Y3" t="n">
-        <v>17.92916916916926</v>
+        <v>18.70666666666675</v>
       </c>
     </row>
   </sheetData>
